--- a/WebImages/data/RF_GS_DOWN_HistoricalResults.xlsx
+++ b/WebImages/data/RF_GS_DOWN_HistoricalResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aalok Devkota\UCI\Investment-Forcasting\Aalok\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aalok Devkota\UCI\AssetAllocation\WebImages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D93F20-9965-48C1-A1F9-297CA2662D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C251FEC1-8684-4EF6-87A8-82D8F944585C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,661 +667,661 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="219"/>
                 <c:pt idx="0">
-                  <c:v>0.90972222222222299</c:v>
+                  <c:v>0.99527777777777704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99687499999999996</c:v>
+                  <c:v>0.97930555555555499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82034722222222201</c:v>
+                  <c:v>0.97805555555555501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.654097222222222</c:v>
+                  <c:v>0.97361111111111098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64805555555555505</c:v>
+                  <c:v>0.89472222222222197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93</c:v>
+                  <c:v>0.81611111111111101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89187499999999997</c:v>
+                  <c:v>0.79444444444444395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.72916666666666E-2</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.543333333333333</c:v>
+                  <c:v>0.60777777777777697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.124583333333333</c:v>
+                  <c:v>0.551111111111111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15645833333333301</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.79166666666666E-2</c:v>
+                  <c:v>0.32638888888888901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>0.31791666666666601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7500000000000004E-2</c:v>
+                  <c:v>0.304305555555555</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.237222222222222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23555555555555499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23166666666666599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.211805555555555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20458333333333301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.160694444444444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.154444444444444</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.7777777777777802E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0972222222222197E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6249999999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5416666666666603E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2916666666666601E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0694444444444399E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2361111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.04166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8888888888888799E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.41666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.05555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1666666666666598E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.4722222222222195E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.19444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6944444444444403E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1666666666666597E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8888888888888801E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8888888888888801E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1.6666666666666601E-3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="44">
+                  <c:v>1.11111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8.3333333333333295E-4</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95583333333333298</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4583333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.114375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.6666666666666602E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="46">
+                  <c:v>4.1666666666666599E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9166666666666599E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.113194444444444</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.58333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5833333333333299E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.4583333333333299E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.88791666666666602</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.26313888888888898</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.31374999999999897</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.25666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.4166666666666599E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.2916666666666598E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.6944444444444401E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.9791666666666598E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.58333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.77083333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.0833333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.863611111111111</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78249999999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.8749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.5138888888888798E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.80180555555555499</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.71333333333333304</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1111111111111101E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.5555555555555502E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.68091666666666695</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.58854166666666596</c:v>
+                  <c:v>0.99888888888888805</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6388888888888797E-2</c:v>
+                  <c:v>0.99541666666666595</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7777777777777701E-2</c:v>
+                  <c:v>0.97152777777777699</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>0.95888888888888801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.95416666666666605</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.90888888888888897</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.87722222222222201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.86708333333333298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85430555555555499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77916666666666601</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75458333333333305</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.700277777777777</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69069444444444394</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.56222222222222196</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.49444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.46027777777777701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.40597222222222201</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.37805555555555498</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25916666666666599</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.253888888888888</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.218055555555555</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20583333333333301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.204722222222222</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.192083333333333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15138888888888799</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13291666666666599</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.124583333333333</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.7638888888888803E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6388888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4722222222222194E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.4583333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.20833333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.1388888888888798E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.9861111111111101E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8055555555555497E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.4722222222222198E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.48611111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.0277777777777699E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.6249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4583333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1527777777777699E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.63888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.3611111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.8888888888888801E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8055555555555501E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3888888888888801E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.1666666666666599E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.1666666666666599E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.96902777777777704</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.4166666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.339166666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.243055555555555</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.83499999999999897</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.3333333333333295E-4</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="110">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.33333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.0972222222222201E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.96027777777777701</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.93666666666666598</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.1388888888888799E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.794722222222222</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.71472222222222204</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.83958333333333302</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.5555555555555497E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.02777777777777E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.4583333333333299E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.6666666666666601E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.17493055555555501</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.3611111111111103E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="111">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.3333333333333297E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.94374999999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.91291666666666604</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.12833333333333299</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.92055555555555502</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.74666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.99666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.86583333333333301</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98875000000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.81930555555555495</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.76527777777777695</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.92791666666666595</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.96416666666666595</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.60819444444444404</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.31166666666666598</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.16145833333333301</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.989375</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.96215277777777697</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.69069444444444394</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.23138888888888801</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.16541666666666599</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.77569444444444402</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.67979166666666602</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.70305555555555499</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.31027777777777699</c:v>
-                </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.106458333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.36986111111111097</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.203125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.87729166666666603</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.90791666666666604</c:v>
+                  <c:v>0.99624999999999997</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.96770833333333295</c:v>
+                  <c:v>0.99166666666666603</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.57659722222222198</c:v>
+                  <c:v>0.98138888888888798</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.36813888888888902</c:v>
+                  <c:v>0.96597222222222201</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.183958333333333</c:v>
+                  <c:v>0.94541666666666602</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.4722222222222201E-2</c:v>
+                  <c:v>0.90986111111111101</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.17145833333333299</c:v>
+                  <c:v>0.89055555555555499</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.99458333333333304</c:v>
+                  <c:v>0.87833333333333297</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.330972222222222</c:v>
+                  <c:v>0.876388888888888</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6.70833333333333E-2</c:v>
+                  <c:v>0.85305555555555601</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.95652777777777698</c:v>
+                  <c:v>0.85166666666666602</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.97076388888888898</c:v>
+                  <c:v>0.84777777777777896</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.36597222222222198</c:v>
+                  <c:v>0.83763888888888904</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.22083333333333299</c:v>
+                  <c:v>0.75722222222222202</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.70430555555555496</c:v>
+                  <c:v>0.65125</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.65202777777777599</c:v>
+                  <c:v>0.58388888888888801</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.3888888888888802E-2</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.82930555555555596</c:v>
+                  <c:v>0.395972222222222</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.68020833333333297</c:v>
+                  <c:v>0.32958333333333201</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.8611111111111104E-3</c:v>
+                  <c:v>0.3075</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.94416666666666604</c:v>
+                  <c:v>0.26291666666666602</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.0555555555555502E-3</c:v>
+                  <c:v>0.24777777777777699</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.94263888888888803</c:v>
+                  <c:v>0.219305555555555</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.195277777777777</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.69791666666666596</c:v>
+                  <c:v>0.179861111111111</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.174722222222222</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>9.8611111111111104E-3</c:v>
+                  <c:v>0.15291666666666601</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.16666666666666E-2</c:v>
+                  <c:v>0.113611111111111</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.40666666666666701</c:v>
+                  <c:v>0.106111111111111</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5.9791666666666597E-2</c:v>
+                  <c:v>9.1527777777777805E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>9.9583333333333302E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.64729166666666604</c:v>
+                  <c:v>6.9305555555555495E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.41330357142857099</c:v>
+                  <c:v>6.4166666666666594E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.6666666666666602E-3</c:v>
+                  <c:v>5.7500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.45138888888888E-2</c:v>
+                  <c:v>4.7499999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>9.5138888888888801E-2</c:v>
+                  <c:v>3.4444444444444403E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
+                  <c:v>2.9722222222222199E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.8888888888888801E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.1388888888888801E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.8194444444444399E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.55555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.4583333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.3055555555555501E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0833333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.05555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.3055555555555496E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.6944444444444403E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.1666666666666597E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3333333333333301E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.3333333333333301E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1666666666666599E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.1666666666666599E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.128194444444444</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.210416666666666</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.46756944444444398</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.12513888888888799</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4.7916666666666601E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5.70833333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.87631944444444398</c:v>
-                </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="171">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.12541666666666601</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.13375000000000001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2.2222222222222201E-3</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.573125</c:v>
-                </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="172">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.95333333333333303</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.6666666666666602E-3</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.35020833333333301</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.9206349206349199E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>0.99916666666666598</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.25E-3</c:v>
+                  <c:v>0.97916666666666596</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>0.97388888888888803</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.1666666666666599E-4</c:v>
+                  <c:v>0.96361111111111097</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>8.3333333333333295E-4</c:v>
+                  <c:v>0.94680555555555501</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.150416666666666</c:v>
+                  <c:v>0.94611111111111101</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.46815476190476E-2</c:v>
+                  <c:v>0.92319444444444398</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.2916666666666601E-2</c:v>
+                  <c:v>0.91513888888888895</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>0.85333333333333306</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>0.79819444444444398</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>0.79638888888888804</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.287291666666666</c:v>
+                  <c:v>0.79444444444444395</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>0.78249999999999997</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.15722222222222201</c:v>
+                  <c:v>0.72166666666666701</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.148611111111111</c:v>
+                  <c:v>0.67180555555555499</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>0.53319444444444397</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>0.47791666666666599</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>0.41805555555555501</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.125291666666666</c:v>
+                  <c:v>0.37791666666666601</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.29027777777777702</c:v>
+                  <c:v>0.31055555555555497</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0</c:v>
+                  <c:v>0.28347222222222201</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.15481944444444401</c:v>
+                  <c:v>0.22486111111111101</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0</c:v>
+                  <c:v>0.207916666666666</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0</c:v>
+                  <c:v>0.15930555555555501</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.02083333333333E-2</c:v>
+                  <c:v>0.12583333333333299</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.6666666666666601E-3</c:v>
+                  <c:v>0.120555555555555</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>7.0833333333333304E-3</c:v>
+                  <c:v>0.11333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.20569444444444401</c:v>
+                  <c:v>0.112638888888888</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.114541666666666</c:v>
+                  <c:v>0.106805555555555</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.49037698412698E-2</c:v>
+                  <c:v>9.6111111111111105E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0</c:v>
+                  <c:v>4.7638888888888897E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5.4695436507936498E-2</c:v>
+                  <c:v>4.72222222222222E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.99305555555555E-2</c:v>
+                  <c:v>3.94444444444444E-2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.20999999999999899</c:v>
+                  <c:v>3.8194444444444399E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0</c:v>
+                  <c:v>3.4583333333333299E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.0555555555555498E-2</c:v>
+                  <c:v>3.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.9375E-2</c:v>
+                  <c:v>1.58333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.5833333333333298E-2</c:v>
+                  <c:v>1.3333333333333299E-2</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4.3055555555555503E-3</c:v>
+                  <c:v>9.02777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.33333333333333E-2</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.15402777777777699</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.103167658730158</c:v>
+                  <c:v>6.1111111111111097E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5.5555555555555501E-4</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>8.8888888888888802E-3</c:v>
+                  <c:v>2.2222222222222201E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.3750000000000004E-3</c:v>
+                  <c:v>1.9444444444444401E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,661 +1333,661 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="219"/>
                 <c:pt idx="0">
-                  <c:v>-0.08</c:v>
+                  <c:v>-0.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.08</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.04</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.16</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.15</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.17</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="76">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="96">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="171">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>-0.38</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>-0.15</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="180">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="196">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.19</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.19</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.19</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-0.18</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.24</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.24</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.16</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.16</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="203">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="205">
                   <c:v>0.13</c:v>
                 </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.12</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.22</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.23</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.12</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.12</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.27</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.27</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.36</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.47</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.5</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D192" sqref="D1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3137,769 +3137,769 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1">
-        <v>39203</v>
+        <v>39539</v>
       </c>
       <c r="C2">
-        <v>-0.08</v>
+        <v>-0.37</v>
       </c>
       <c r="D2">
-        <v>0.90972222222222299</v>
+        <v>0.99527777777777704</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
-        <v>39203</v>
+        <v>36770</v>
       </c>
       <c r="C3">
-        <v>-0.08</v>
+        <v>-0.27</v>
       </c>
       <c r="D3">
-        <v>0.99687499999999996</v>
+        <v>0.97930555555555499</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>39083</v>
+        <v>36708</v>
       </c>
       <c r="C4">
-        <v>-0.04</v>
+        <v>-0.15</v>
       </c>
       <c r="D4">
-        <v>0.82034722222222201</v>
+        <v>0.97805555555555501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1">
-        <v>39052</v>
+        <v>39295</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="D5">
-        <v>0.654097222222222</v>
+        <v>0.97361111111111098</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1">
-        <v>39022</v>
+        <v>39630</v>
       </c>
       <c r="C6">
-        <v>0.06</v>
+        <v>-0.22</v>
       </c>
       <c r="D6">
-        <v>0.64805555555555505</v>
+        <v>0.89472222222222197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>39142</v>
+        <v>37043</v>
       </c>
       <c r="C7">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.19</v>
       </c>
       <c r="D7">
-        <v>0.93</v>
+        <v>0.81611111111111101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1">
-        <v>39142</v>
+        <v>42064</v>
       </c>
       <c r="C8">
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.89187499999999997</v>
+        <v>0.79444444444444395</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>43132</v>
+        <v>36495</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>-0.11</v>
       </c>
       <c r="D9">
-        <v>2.72916666666666E-2</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
-        <v>38991</v>
+        <v>39114</v>
       </c>
       <c r="C10">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="D10">
-        <v>0.543333333333333</v>
+        <v>0.60777777777777697</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>43313</v>
+        <v>36526</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="D11">
-        <v>0.124583333333333</v>
+        <v>0.551111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1">
-        <v>38961</v>
+        <v>40634</v>
       </c>
       <c r="C12">
-        <v>0.14000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="D12">
-        <v>0.15645833333333301</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1">
-        <v>43282</v>
+        <v>41974</v>
       </c>
       <c r="C13">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D13">
-        <v>2.79166666666666E-2</v>
+        <v>0.32638888888888901</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
-        <v>43070</v>
+        <v>37742</v>
       </c>
       <c r="C14">
-        <v>-0.06</v>
+        <v>0.16</v>
       </c>
       <c r="D14">
-        <v>9.7500000000000003E-2</v>
+        <v>0.31791666666666601</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1">
-        <v>43040</v>
+        <v>39692</v>
       </c>
       <c r="C15">
-        <v>0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="D15">
-        <v>6.7500000000000004E-2</v>
+        <v>0.304305555555555</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
-        <v>43040</v>
+        <v>37773</v>
       </c>
       <c r="C16">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="D16">
-        <v>1.6666666666666601E-3</v>
+        <v>0.237222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>43191</v>
+        <v>36312</v>
       </c>
       <c r="C17">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D17">
-        <v>8.3333333333333295E-4</v>
+        <v>0.23555555555555499</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1">
-        <v>39295</v>
+        <v>42217</v>
       </c>
       <c r="C18">
-        <v>-0.13</v>
+        <v>0.09</v>
       </c>
       <c r="D18">
-        <v>0.95583333333333298</v>
+        <v>0.23166666666666599</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>43405</v>
+        <v>36251</v>
       </c>
       <c r="C19">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D19">
-        <v>4.4583333333333301E-2</v>
+        <v>0.211805555555555</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
-        <v>38899</v>
+        <v>37895</v>
       </c>
       <c r="C20">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D20">
-        <v>0.114375</v>
+        <v>0.20458333333333301</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1">
-        <v>43009</v>
+        <v>37712</v>
       </c>
       <c r="C21">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="D21">
-        <v>0.04</v>
+        <v>0.160694444444444</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1">
-        <v>43009</v>
+        <v>37834</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>3.5000000000000003E-2</v>
+        <v>0.154444444444444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>43252</v>
+        <v>36465</v>
       </c>
       <c r="C23">
-        <v>0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="D23">
-        <v>6.6666666666666602E-3</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1">
-        <v>43252</v>
+        <v>37926</v>
       </c>
       <c r="C24">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>8.7777777777777802E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1">
-        <v>38749</v>
+        <v>38869</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="D25">
-        <v>3.7499999999999999E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
-        <v>38749</v>
+        <v>37987</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D26">
-        <v>2.9166666666666599E-3</v>
+        <v>5.0972222222222197E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1">
-        <v>38777</v>
+        <v>42461</v>
       </c>
       <c r="C27">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="D27">
-        <v>1.25E-3</v>
+        <v>4.6249999999999902E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
-        <v>43374</v>
+        <v>38078</v>
       </c>
       <c r="C28">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="D28">
-        <v>0.113194444444444</v>
+        <v>3.5416666666666603E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
-        <v>38869</v>
+        <v>38108</v>
       </c>
       <c r="C29">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="D29">
-        <v>1.58333333333333E-2</v>
+        <v>3.2916666666666601E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1">
-        <v>38718</v>
+        <v>40878</v>
       </c>
       <c r="C30">
         <v>0.13</v>
       </c>
       <c r="D30">
-        <v>4.5833333333333299E-3</v>
+        <v>3.0694444444444399E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1">
-        <v>38718</v>
+        <v>40513</v>
       </c>
       <c r="C31">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.2361111111111099E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1">
-        <v>42979</v>
+        <v>40725</v>
       </c>
       <c r="C32">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="D32">
-        <v>1.4583333333333299E-3</v>
+        <v>2.04166666666666E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1">
-        <v>42979</v>
+        <v>40452</v>
       </c>
       <c r="C33">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.8888888888888799E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1">
-        <v>38687</v>
+        <v>41365</v>
       </c>
       <c r="C34">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1.41666666666666E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1">
-        <v>38687</v>
+        <v>42370</v>
       </c>
       <c r="C35">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D35">
-        <v>2.5000000000000001E-3</v>
+        <v>1.05555555555555E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1">
-        <v>39387</v>
+        <v>40299</v>
       </c>
       <c r="C36">
-        <v>-0.39</v>
+        <v>0.23</v>
       </c>
       <c r="D36">
-        <v>0.88791666666666602</v>
+        <v>9.1666666666666598E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1">
-        <v>41974</v>
+        <v>40787</v>
       </c>
       <c r="C37">
-        <v>-0.01</v>
+        <v>0.27</v>
       </c>
       <c r="D37">
-        <v>0.26313888888888898</v>
+        <v>8.7500000000000008E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1">
-        <v>41974</v>
+        <v>40210</v>
       </c>
       <c r="C38">
-        <v>-0.01</v>
+        <v>0.2</v>
       </c>
       <c r="D38">
-        <v>0.31374999999999897</v>
+        <v>8.4722222222222195E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1">
-        <v>42156</v>
+        <v>40848</v>
       </c>
       <c r="C39">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D39">
-        <v>0.25666666666666599</v>
+        <v>8.19444444444444E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1">
-        <v>38626</v>
+        <v>40118</v>
       </c>
       <c r="C40">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="D40">
-        <v>5.4166666666666599E-3</v>
+        <v>5.6944444444444403E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="B41" s="1">
-        <v>38626</v>
+        <v>42675</v>
       </c>
       <c r="C41">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
-        <v>7.2916666666666598E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1">
-        <v>42887</v>
+        <v>39965</v>
       </c>
       <c r="C42">
         <v>0.12</v>
       </c>
       <c r="D42">
-        <v>1.6944444444444401E-2</v>
+        <v>4.1666666666666597E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1">
-        <v>42887</v>
+        <v>40422</v>
       </c>
       <c r="C43">
-        <v>0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.8888888888888801E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="B44" s="1">
-        <v>38534</v>
+        <v>41456</v>
       </c>
       <c r="C44">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D44">
-        <v>2.9791666666666598E-2</v>
+        <v>3.8888888888888801E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B45" s="1">
-        <v>38353</v>
+        <v>39783</v>
       </c>
       <c r="C45">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="D45">
-        <v>1.58333333333333E-2</v>
+        <v>1.6666666666666601E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1">
-        <v>38353</v>
+        <v>38596</v>
       </c>
       <c r="C46">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D46">
-        <v>1.77083333333333E-3</v>
+        <v>1.11111111111111E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B47" s="1">
-        <v>38384</v>
+        <v>41244</v>
       </c>
       <c r="C47">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>8.3333333333333295E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>38292</v>
+        <v>37622</v>
       </c>
       <c r="C48">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="D48">
-        <v>2.0833333333333301E-2</v>
+        <v>4.1666666666666599E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1">
-        <v>36861</v>
+        <v>38384</v>
       </c>
       <c r="C49">
-        <v>-0.13</v>
+        <v>0.06</v>
       </c>
       <c r="D49">
-        <v>0.863611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B50" s="1">
-        <v>36861</v>
+        <v>38687</v>
       </c>
       <c r="C50">
-        <v>-0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D50">
-        <v>0.78249999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1">
-        <v>38292</v>
+        <v>38838</v>
       </c>
       <c r="C51">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <v>1.8749999999999999E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B52" s="1">
-        <v>38504</v>
+        <v>40940</v>
       </c>
       <c r="C52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="D52">
-        <v>4.5138888888888798E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1">
-        <v>36892</v>
+        <v>41000</v>
       </c>
       <c r="C53">
-        <v>-0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D53">
-        <v>0.80180555555555499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1">
-        <v>36892</v>
+        <v>41122</v>
       </c>
       <c r="C54">
-        <v>-0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D54">
-        <v>0.71333333333333304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="B55" s="1">
-        <v>38473</v>
+        <v>41579</v>
       </c>
       <c r="C55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D55">
-        <v>2.1111111111111101E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="B56" s="1">
-        <v>38473</v>
+        <v>41640</v>
       </c>
       <c r="C56">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3916,1656 +3916,1656 @@
         <v>0.12</v>
       </c>
       <c r="D57">
-        <v>4.5555555555555502E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B58" s="1">
-        <v>42795</v>
+        <v>43009</v>
       </c>
       <c r="C58">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="D58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1">
-        <v>39448</v>
+        <v>43070</v>
       </c>
       <c r="C59">
-        <v>-0.4</v>
+        <v>-0.06</v>
       </c>
       <c r="D59">
-        <v>0.68091666666666695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B60" s="1">
-        <v>39448</v>
+        <v>39203</v>
       </c>
       <c r="C60">
-        <v>-0.4</v>
+        <v>-0.08</v>
       </c>
       <c r="D60">
-        <v>0.58854166666666596</v>
+        <v>0.99888888888888805</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1">
-        <v>37987</v>
+        <v>36617</v>
       </c>
       <c r="C61">
-        <v>0.04</v>
+        <v>-0.13</v>
       </c>
       <c r="D61">
-        <v>3.6388888888888797E-2</v>
+        <v>0.99541666666666595</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1">
-        <v>42826</v>
+        <v>36770</v>
       </c>
       <c r="C62">
-        <v>0.11</v>
+        <v>-0.27</v>
       </c>
       <c r="D62">
-        <v>1.7777777777777701E-2</v>
+        <v>0.97152777777777699</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1">
-        <v>42826</v>
+        <v>37226</v>
       </c>
       <c r="C63">
-        <v>0.11</v>
+        <v>-0.23</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.95888888888888801</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="C64">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="D64">
-        <v>0.96902777777777704</v>
+        <v>0.95416666666666605</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1">
-        <v>38200</v>
+        <v>37377</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="D65">
-        <v>3.4166666666666602E-2</v>
+        <v>0.90888888888888897</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1">
-        <v>42005</v>
+        <v>37104</v>
       </c>
       <c r="C66">
-        <v>-0.03</v>
+        <v>-0.2</v>
       </c>
       <c r="D66">
-        <v>0.339166666666667</v>
+        <v>0.87722222222222201</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1">
-        <v>42005</v>
+        <v>37012</v>
       </c>
       <c r="C67">
-        <v>-0.03</v>
+        <v>-0.15</v>
       </c>
       <c r="D67">
-        <v>0.243055555555555</v>
+        <v>0.86708333333333298</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B68" s="1">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="C68">
-        <v>-0.15</v>
+        <v>-0.25</v>
       </c>
       <c r="D68">
-        <v>0.83499999999999897</v>
+        <v>0.85430555555555499</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1">
-        <v>42736</v>
+        <v>36861</v>
       </c>
       <c r="C69">
-        <v>0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="D69">
-        <v>6.2500000000000003E-3</v>
+        <v>0.77916666666666601</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
-        <v>42736</v>
+        <v>36831</v>
       </c>
       <c r="C70">
-        <v>0.24</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D70">
-        <v>8.3333333333333295E-4</v>
+        <v>0.75458333333333305</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>42705</v>
+        <v>36434</v>
       </c>
       <c r="C71">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.700277777777777</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>42856</v>
+        <v>36495</v>
       </c>
       <c r="C72">
-        <v>0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="D72">
-        <v>0.72</v>
+        <v>0.69069444444444394</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B73" s="1">
-        <v>38108</v>
+        <v>39114</v>
       </c>
       <c r="C73">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="D73">
-        <v>2.33333333333333E-2</v>
+        <v>0.56222222222222196</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1">
-        <v>38139</v>
+        <v>36465</v>
       </c>
       <c r="C74">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D74">
-        <v>2.0972222222222201E-2</v>
+        <v>0.49444444444444402</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>38139</v>
+        <v>36312</v>
       </c>
       <c r="C75">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D75">
-        <v>2.5000000000000001E-2</v>
+        <v>0.46027777777777701</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B76" s="1">
-        <v>36739</v>
+        <v>40238</v>
       </c>
       <c r="C76">
-        <v>-0.25</v>
+        <v>0.13</v>
       </c>
       <c r="D76">
-        <v>0.96027777777777701</v>
+        <v>0.40597222222222201</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1">
-        <v>36739</v>
+        <v>38991</v>
       </c>
       <c r="C77">
-        <v>-0.25</v>
+        <v>0.12</v>
       </c>
       <c r="D77">
-        <v>0.93666666666666598</v>
+        <v>0.37805555555555498</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="B78" s="1">
-        <v>38231</v>
+        <v>42005</v>
       </c>
       <c r="C78">
-        <v>0.1</v>
+        <v>-0.03</v>
       </c>
       <c r="D78">
-        <v>1.1388888888888799E-2</v>
+        <v>0.25916666666666599</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1">
-        <v>37043</v>
+        <v>40148</v>
       </c>
       <c r="C79">
-        <v>-0.19</v>
+        <v>0.13</v>
       </c>
       <c r="D79">
-        <v>0.794722222222222</v>
+        <v>0.253888888888888</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1">
-        <v>37043</v>
+        <v>42644</v>
       </c>
       <c r="C80">
-        <v>-0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D80">
-        <v>0.71472222222222204</v>
+        <v>0.218055555555555</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B81" s="1">
-        <v>37043</v>
+        <v>42491</v>
       </c>
       <c r="C81">
-        <v>-0.19</v>
+        <v>0.15</v>
       </c>
       <c r="D81">
-        <v>0.83958333333333302</v>
+        <v>0.20583333333333301</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1">
-        <v>38412</v>
+        <v>42461</v>
       </c>
       <c r="C82">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D82">
-        <v>5.5555555555555497E-3</v>
+        <v>0.204722222222222</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1">
-        <v>38412</v>
+        <v>42522</v>
       </c>
       <c r="C83">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D83">
-        <v>2.02777777777777E-2</v>
+        <v>0.192083333333333</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B84" s="1">
-        <v>37956</v>
+        <v>37803</v>
       </c>
       <c r="C84">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D84">
-        <v>1.4583333333333299E-3</v>
+        <v>0.15138888888888799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="B85" s="1">
-        <v>38078</v>
+        <v>40391</v>
       </c>
       <c r="C85">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="D85">
-        <v>1.6666666666666601E-2</v>
+        <v>0.13291666666666599</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B86" s="1">
-        <v>38169</v>
+        <v>42430</v>
       </c>
       <c r="C86">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D86">
-        <v>0.17493055555555501</v>
+        <v>0.124583333333333</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>42248</v>
+        <v>36161</v>
       </c>
       <c r="C87">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="D87">
-        <v>9.3611111111111103E-2</v>
+        <v>9.7638888888888803E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B88" s="1">
-        <v>42675</v>
+        <v>41883</v>
       </c>
       <c r="C88">
-        <v>0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>9.6388888888888899E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
-        <v>42675</v>
+        <v>36342</v>
       </c>
       <c r="C89">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D89">
-        <v>8.3333333333333297E-3</v>
+        <v>9.4722222222222194E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1">
-        <v>36982</v>
+        <v>42948</v>
       </c>
       <c r="C90">
-        <v>-0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D90">
-        <v>0.94374999999999998</v>
+        <v>9.4583333333333297E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B91" s="1">
-        <v>36982</v>
+        <v>37712</v>
       </c>
       <c r="C91">
-        <v>-0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D91">
-        <v>0.91291666666666604</v>
+        <v>8.20833333333333E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B92" s="1">
-        <v>42217</v>
+        <v>41760</v>
       </c>
       <c r="C92">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D92">
-        <v>0.12833333333333299</v>
+        <v>6.1388888888888798E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>36923</v>
+        <v>39995</v>
       </c>
       <c r="C93">
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D93">
-        <v>0.92055555555555502</v>
+        <v>5.9861111111111101E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1">
-        <v>36831</v>
+        <v>40330</v>
       </c>
       <c r="C94">
-        <v>-0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D94">
-        <v>0.74666666666666603</v>
+        <v>4.8055555555555497E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B95" s="1">
-        <v>39539</v>
+        <v>40544</v>
       </c>
       <c r="C95">
-        <v>-0.37</v>
+        <v>0.02</v>
       </c>
       <c r="D95">
-        <v>0.99666666666666603</v>
+        <v>4.4722222222222198E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B96" s="1">
-        <v>39539</v>
+        <v>40513</v>
       </c>
       <c r="C96">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.86583333333333301</v>
+        <v>3.48611111111111E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B97" s="1">
-        <v>39539</v>
+        <v>37987</v>
       </c>
       <c r="C97">
-        <v>-0.37</v>
+        <v>0.04</v>
       </c>
       <c r="D97">
-        <v>0.98875000000000002</v>
+        <v>3.0277777777777699E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1">
-        <v>37347</v>
+        <v>38657</v>
       </c>
       <c r="C98">
-        <v>-0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D98">
-        <v>0.81930555555555495</v>
+        <v>2.6249999999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1">
-        <v>37377</v>
+        <v>38047</v>
       </c>
       <c r="C99">
-        <v>-0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D99">
-        <v>0.76527777777777695</v>
+        <v>1.4583333333333301E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1">
-        <v>37377</v>
+        <v>39904</v>
       </c>
       <c r="C100">
-        <v>-0.1</v>
+        <v>0.36</v>
       </c>
       <c r="D100">
-        <v>0.92791666666666595</v>
+        <v>1.1527777777777699E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="B101" s="1">
-        <v>37226</v>
+        <v>43040</v>
       </c>
       <c r="C101">
-        <v>-0.23</v>
+        <v>0.04</v>
       </c>
       <c r="D101">
-        <v>0.96416666666666595</v>
+        <v>8.3333333333333297E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1">
-        <v>37104</v>
+        <v>43070</v>
       </c>
       <c r="C102">
-        <v>-0.2</v>
+        <v>-0.06</v>
       </c>
       <c r="D102">
-        <v>0.60819444444444404</v>
+        <v>8.3333333333333297E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B103" s="1">
-        <v>36312</v>
+        <v>42401</v>
       </c>
       <c r="C103">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="D103">
-        <v>0.31166666666666598</v>
+        <v>7.63888888888888E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="B104" s="1">
-        <v>36312</v>
+        <v>42552</v>
       </c>
       <c r="C104">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D104">
-        <v>0.16145833333333301</v>
+        <v>7.3611111111111099E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B105" s="1">
-        <v>37196</v>
+        <v>38473</v>
       </c>
       <c r="C105">
-        <v>-0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D105">
-        <v>0.989375</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="B106" s="1">
-        <v>36708</v>
+        <v>41183</v>
       </c>
       <c r="C106">
-        <v>-0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D106">
-        <v>0.96215277777777697</v>
+        <v>3.8888888888888801E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B107" s="1">
-        <v>39479</v>
+        <v>38749</v>
       </c>
       <c r="C107">
-        <v>-0.45</v>
+        <v>0.1</v>
       </c>
       <c r="D107">
-        <v>0.69069444444444394</v>
+        <v>1.8055555555555501E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B108" s="1">
-        <v>37803</v>
+        <v>41365</v>
       </c>
       <c r="C108">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D108">
-        <v>0.23138888888888801</v>
+        <v>1.3888888888888801E-3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B109" s="1">
-        <v>37803</v>
+        <v>40664</v>
       </c>
       <c r="C109">
-        <v>0.12</v>
+        <v>-0.03</v>
       </c>
       <c r="D109">
-        <v>0.16541666666666599</v>
+        <v>4.1666666666666599E-4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B110" s="1">
-        <v>36434</v>
+        <v>40695</v>
       </c>
       <c r="C110">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D110">
-        <v>0.77569444444444402</v>
+        <v>4.1666666666666599E-4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B111" s="1">
-        <v>36434</v>
+        <v>37591</v>
       </c>
       <c r="C111">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="D111">
-        <v>0.67979166666666602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="B112" s="1">
-        <v>37288</v>
+        <v>41699</v>
       </c>
       <c r="C112">
-        <v>-0.24</v>
+        <v>0.1</v>
       </c>
       <c r="D112">
-        <v>0.70305555555555499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="B113" s="1">
-        <v>37834</v>
+        <v>41821</v>
       </c>
       <c r="C113">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D113">
-        <v>0.31027777777777699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="B114" s="1">
-        <v>36281</v>
+        <v>42705</v>
       </c>
       <c r="C114">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="D114">
-        <v>0.106458333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="B115" s="1">
-        <v>36220</v>
+        <v>42736</v>
       </c>
       <c r="C115">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="D115">
-        <v>0.36986111111111097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B116" s="1">
-        <v>36220</v>
+        <v>42767</v>
       </c>
       <c r="C116">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D116">
-        <v>0.203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="B117" s="1">
-        <v>39508</v>
+        <v>42795</v>
       </c>
       <c r="C117">
-        <v>-0.4</v>
+        <v>0.12</v>
       </c>
       <c r="D117">
-        <v>0.87729166666666603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1">
-        <v>39569</v>
+        <v>39417</v>
       </c>
       <c r="C118">
-        <v>-0.34</v>
+        <v>-0.38</v>
       </c>
       <c r="D118">
-        <v>0.90791666666666604</v>
+        <v>0.99624999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B119" s="1">
-        <v>39569</v>
+        <v>39203</v>
       </c>
       <c r="C119">
-        <v>-0.34</v>
+        <v>-0.08</v>
       </c>
       <c r="D119">
-        <v>0.96770833333333295</v>
+        <v>0.99166666666666603</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B120" s="1">
-        <v>37135</v>
+        <v>39264</v>
       </c>
       <c r="C120">
-        <v>-0.22</v>
+        <v>-0.13</v>
       </c>
       <c r="D120">
-        <v>0.57659722222222198</v>
+        <v>0.98138888888888798</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="B121" s="1">
-        <v>42125</v>
+        <v>37073</v>
       </c>
       <c r="C121">
-        <v>-0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="D121">
-        <v>0.36813888888888902</v>
+        <v>0.96597222222222201</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B122" s="1">
-        <v>37742</v>
+        <v>37347</v>
       </c>
       <c r="C122">
-        <v>0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="D122">
-        <v>0.183958333333333</v>
+        <v>0.94541666666666602</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B123" s="1">
-        <v>37773</v>
+        <v>37288</v>
       </c>
       <c r="C123">
-        <v>0.17</v>
+        <v>-0.24</v>
       </c>
       <c r="D123">
-        <v>2.4722222222222201E-2</v>
+        <v>0.90986111111111101</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B124" s="1">
-        <v>37773</v>
+        <v>36495</v>
       </c>
       <c r="C124">
-        <v>0.17</v>
+        <v>-0.11</v>
       </c>
       <c r="D124">
-        <v>0.17145833333333299</v>
+        <v>0.89055555555555499</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125" s="1">
-        <v>36617</v>
+        <v>36586</v>
       </c>
       <c r="C125">
-        <v>-0.13</v>
+        <v>-0.22</v>
       </c>
       <c r="D125">
-        <v>0.99458333333333304</v>
+        <v>0.87833333333333297</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="B126" s="1">
-        <v>42036</v>
+        <v>36892</v>
       </c>
       <c r="C126">
-        <v>-0.08</v>
+        <v>-0.17</v>
       </c>
       <c r="D126">
-        <v>0.330972222222222</v>
+        <v>0.876388888888888</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="B127" s="1">
-        <v>42644</v>
+        <v>39630</v>
       </c>
       <c r="C127">
-        <v>0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="D127">
-        <v>6.70833333333333E-2</v>
+        <v>0.85305555555555601</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1">
-        <v>36586</v>
+        <v>36831</v>
       </c>
       <c r="C128">
-        <v>-0.22</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D128">
-        <v>0.95652777777777698</v>
+        <v>0.85166666666666602</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B129" s="1">
-        <v>36586</v>
+        <v>39600</v>
       </c>
       <c r="C129">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="D129">
-        <v>0.97076388888888898</v>
+        <v>0.84777777777777896</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B130" s="1">
-        <v>36192</v>
+        <v>36557</v>
       </c>
       <c r="C130">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="D130">
-        <v>0.36597222222222198</v>
+        <v>0.83763888888888904</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1">
-        <v>36192</v>
+        <v>36434</v>
       </c>
       <c r="C131">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="D131">
-        <v>0.22083333333333299</v>
+        <v>0.75722222222222202</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B132" s="1">
-        <v>42064</v>
+        <v>41791</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D132">
-        <v>0.70430555555555496</v>
+        <v>0.65125</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B133" s="1">
-        <v>41913</v>
+        <v>41760</v>
       </c>
       <c r="C133">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D133">
-        <v>0.65202777777777599</v>
+        <v>0.58388888888888801</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B134" s="1">
-        <v>42339</v>
+        <v>42095</v>
       </c>
       <c r="C134">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="D134">
-        <v>3.3888888888888802E-2</v>
+        <v>0.5675</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B135" s="1">
-        <v>36495</v>
+        <v>37165</v>
       </c>
       <c r="C135">
-        <v>-0.11</v>
+        <v>-0.16</v>
       </c>
       <c r="D135">
-        <v>0.82930555555555596</v>
+        <v>0.395972222222222</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B136" s="1">
-        <v>36495</v>
+        <v>39722</v>
       </c>
       <c r="C136">
-        <v>-0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D136">
-        <v>0.68020833333333297</v>
+        <v>0.32958333333333201</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="B137" s="1">
-        <v>42614</v>
+        <v>36312</v>
       </c>
       <c r="C137">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="D137">
-        <v>9.8611111111111104E-3</v>
+        <v>0.3075</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="B138" s="1">
-        <v>36678</v>
+        <v>41821</v>
       </c>
       <c r="C138">
-        <v>-0.16</v>
+        <v>0.09</v>
       </c>
       <c r="D138">
-        <v>0.94416666666666604</v>
+        <v>0.26291666666666602</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="B139" s="1">
-        <v>42491</v>
+        <v>36251</v>
       </c>
       <c r="C139">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="D139">
-        <v>8.0555555555555502E-3</v>
+        <v>0.24777777777777699</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B140" s="1">
-        <v>36678</v>
+        <v>42036</v>
       </c>
       <c r="C140">
-        <v>-0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="D140">
-        <v>0.94263888888888803</v>
+        <v>0.219305555555555</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B141" s="1">
-        <v>42491</v>
+        <v>42248</v>
       </c>
       <c r="C141">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D141">
-        <v>1.2500000000000001E-2</v>
+        <v>0.195277777777777</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="B142" s="1">
-        <v>36678</v>
+        <v>42856</v>
       </c>
       <c r="C142">
-        <v>-0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D142">
-        <v>0.69791666666666596</v>
+        <v>0.179861111111111</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B143" s="1">
-        <v>42491</v>
+        <v>42156</v>
       </c>
       <c r="C143">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="D143">
-        <v>1.5625E-2</v>
+        <v>0.174722222222222</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1">
-        <v>42552</v>
+        <v>36220</v>
       </c>
       <c r="C144">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D144">
-        <v>9.8611111111111104E-3</v>
+        <v>0.15291666666666601</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B145" s="1">
-        <v>37469</v>
+        <v>39845</v>
       </c>
       <c r="C145">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="D145">
-        <v>1.16666666666666E-2</v>
+        <v>0.113611111111111</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B146" s="1">
-        <v>41852</v>
+        <v>41671</v>
       </c>
       <c r="C146">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="D146">
-        <v>0.40666666666666701</v>
+        <v>0.106111111111111</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>42461</v>
+        <v>40575</v>
       </c>
       <c r="C147">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="D147">
-        <v>5.9791666666666597E-2</v>
+        <v>9.1527777777777805E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B148" s="1">
-        <v>42461</v>
+        <v>37895</v>
       </c>
       <c r="C148">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="D148">
-        <v>9.9583333333333302E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B149" s="1">
-        <v>36526</v>
+        <v>40269</v>
       </c>
       <c r="C149">
-        <v>-0.02</v>
+        <v>0.15</v>
       </c>
       <c r="D149">
-        <v>0.64729166666666604</v>
+        <v>6.9305555555555495E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B150" s="1">
-        <v>41791</v>
+        <v>41395</v>
       </c>
       <c r="C150">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="D150">
-        <v>0.41330357142857099</v>
+        <v>6.4166666666666594E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B151" s="1">
-        <v>37530</v>
+        <v>40878</v>
       </c>
       <c r="C151">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="D151">
-        <v>6.6666666666666602E-3</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B152" s="1">
-        <v>42430</v>
+        <v>40848</v>
       </c>
       <c r="C152">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D152">
-        <v>2.45138888888888E-2</v>
+        <v>4.7499999999999903E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="B153" s="1">
-        <v>41821</v>
+        <v>38169</v>
       </c>
       <c r="C153">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D153">
-        <v>9.5138888888888801E-2</v>
+        <v>3.4444444444444403E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B154" s="1">
-        <v>41699</v>
+        <v>37987</v>
       </c>
       <c r="C154">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>2.9722222222222199E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="B155" s="1">
-        <v>41760</v>
+        <v>38078</v>
       </c>
       <c r="C155">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D155">
-        <v>0.128194444444444</v>
+        <v>2.8888888888888801E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B156" s="1">
-        <v>41760</v>
+        <v>41030</v>
       </c>
       <c r="C156">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="D156">
-        <v>0.210416666666666</v>
+        <v>2.1388888888888801E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="B157" s="1">
-        <v>36404</v>
+        <v>42948</v>
       </c>
       <c r="C157">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="D157">
-        <v>0.46756944444444398</v>
+        <v>1.8194444444444399E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="B158" s="1">
-        <v>37622</v>
+        <v>42522</v>
       </c>
       <c r="C158">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="D158">
-        <v>0.12513888888888799</v>
+        <v>1.55555555555555E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="B159" s="1">
-        <v>42370</v>
+        <v>37500</v>
       </c>
       <c r="C159">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="D159">
-        <v>4.7916666666666601E-2</v>
+        <v>1.4583333333333301E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B160" s="1">
-        <v>42370</v>
+        <v>40817</v>
       </c>
       <c r="C160">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D160">
-        <v>5.70833333333333E-3</v>
+        <v>1.3055555555555501E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B161" s="1">
-        <v>42370</v>
+        <v>41456</v>
       </c>
       <c r="C161">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D161">
-        <v>1.2500000000000001E-2</v>
+        <v>1.0833333333333301E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B162" s="1">
-        <v>39630</v>
+        <v>40026</v>
       </c>
       <c r="C162">
-        <v>-0.22</v>
+        <v>0.03</v>
       </c>
       <c r="D162">
-        <v>0.87631944444444398</v>
+        <v>1.05555555555555E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="B163" s="1">
-        <v>41579</v>
+        <v>39965</v>
       </c>
       <c r="C163">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>9.3055555555555496E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="B164" s="1">
-        <v>41640</v>
+        <v>38353</v>
       </c>
       <c r="C164">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>5.6944444444444403E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B165" s="1">
-        <v>37653</v>
+        <v>40210</v>
       </c>
       <c r="C165">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D165">
-        <v>0.12541666666666601</v>
+        <v>4.1666666666666597E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B166" s="1">
-        <v>37681</v>
+        <v>41548</v>
       </c>
       <c r="C166">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="D166">
-        <v>0.13375000000000001</v>
+        <v>3.3333333333333301E-3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B167" s="1">
-        <v>37500</v>
+        <v>41640</v>
       </c>
       <c r="C167">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="D167">
-        <v>2.2222222222222201E-3</v>
+        <v>3.3333333333333301E-3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B168" s="1">
-        <v>36557</v>
+        <v>37530</v>
       </c>
       <c r="C168">
-        <v>-0.1</v>
+        <v>0.19</v>
       </c>
       <c r="D168">
-        <v>0.573125</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="B169" s="1">
-        <v>41548</v>
+        <v>38384</v>
       </c>
       <c r="C169">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>4.1666666666666599E-4</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="B170" s="1">
-        <v>39600</v>
+        <v>42979</v>
       </c>
       <c r="C170">
-        <v>-0.28000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="D170">
-        <v>0.95333333333333303</v>
+        <v>4.1666666666666599E-4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B171" s="1">
-        <v>41518</v>
+        <v>38657</v>
       </c>
       <c r="C171">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="D171">
-        <v>6.6666666666666602E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B172" s="1">
-        <v>39692</v>
+        <v>40969</v>
       </c>
       <c r="C172">
-        <v>-0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D172">
-        <v>0.35020833333333301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B173" s="1">
-        <v>41395</v>
+        <v>41122</v>
       </c>
       <c r="C173">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D173">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B174" s="1">
-        <v>41395</v>
+        <v>42614</v>
       </c>
       <c r="C174">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D174">
-        <v>1.9206349206349199E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="B175" s="1">
-        <v>41487</v>
+        <v>42736</v>
       </c>
       <c r="C175">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5573,632 +5573,814 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1">
-        <v>41487</v>
+        <v>36617</v>
       </c>
       <c r="C176">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>0.99916666666666598</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B177" s="1">
-        <v>41365</v>
+        <v>39356</v>
       </c>
       <c r="C177">
-        <v>0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="D177">
-        <v>1.25E-3</v>
+        <v>0.97916666666666596</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B178" s="1">
-        <v>41334</v>
+        <v>39417</v>
       </c>
       <c r="C178">
-        <v>0.19</v>
+        <v>-0.38</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>0.97388888888888803</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B179" s="1">
-        <v>41306</v>
+        <v>42064</v>
       </c>
       <c r="C179">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>4.1666666666666599E-4</v>
+        <v>0.96361111111111097</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B180" s="1">
-        <v>41306</v>
+        <v>39387</v>
       </c>
       <c r="C180">
-        <v>0.23</v>
+        <v>-0.39</v>
       </c>
       <c r="D180">
-        <v>8.3333333333333295E-4</v>
+        <v>0.94680555555555501</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="B181" s="1">
-        <v>40238</v>
+        <v>36708</v>
       </c>
       <c r="C181">
-        <v>0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="D181">
-        <v>0.150416666666666</v>
+        <v>0.94611111111111101</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B182" s="1">
-        <v>40513</v>
+        <v>41944</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D182">
-        <v>2.46815476190476E-2</v>
+        <v>0.92319444444444398</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B183" s="1">
-        <v>41183</v>
+        <v>36678</v>
       </c>
       <c r="C183">
-        <v>0.24</v>
+        <v>-0.16</v>
       </c>
       <c r="D183">
-        <v>1.2916666666666601E-2</v>
+        <v>0.91513888888888895</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B184" s="1">
-        <v>41183</v>
+        <v>36951</v>
       </c>
       <c r="C184">
-        <v>0.24</v>
+        <v>-0.02</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>0.85333333333333306</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="B185" s="1">
-        <v>40664</v>
+        <v>37196</v>
       </c>
       <c r="C185">
-        <v>-0.03</v>
+        <v>-0.18</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>0.79819444444444398</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B186" s="1">
-        <v>40969</v>
+        <v>37012</v>
       </c>
       <c r="C186">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>0.79638888888888804</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B187" s="1">
-        <v>39722</v>
+        <v>36982</v>
       </c>
       <c r="C187">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="D187">
-        <v>0.287291666666666</v>
+        <v>0.79444444444444395</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="B188" s="1">
-        <v>41000</v>
+        <v>37073</v>
       </c>
       <c r="C188">
-        <v>0.14000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>0.78249999999999997</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="B189" s="1">
-        <v>40695</v>
+        <v>36465</v>
       </c>
       <c r="C189">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="D189">
-        <v>0.15722222222222201</v>
+        <v>0.72166666666666701</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B190" s="1">
-        <v>40695</v>
+        <v>39479</v>
       </c>
       <c r="C190">
-        <v>0.03</v>
+        <v>-0.45</v>
       </c>
       <c r="D190">
-        <v>0.148611111111111</v>
+        <v>0.67180555555555499</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B191" s="1">
-        <v>40725</v>
+        <v>37316</v>
       </c>
       <c r="C191">
-        <v>0.06</v>
+        <v>-0.26</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>0.53319444444444397</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B192" s="1">
-        <v>40940</v>
+        <v>39022</v>
       </c>
       <c r="C192">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>0.47791666666666599</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B193" s="1">
-        <v>40360</v>
+        <v>37288</v>
       </c>
       <c r="C193">
-        <v>0.17</v>
+        <v>-0.24</v>
       </c>
       <c r="D193">
-        <v>1.7500000000000002E-2</v>
+        <v>0.41805555555555501</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B194" s="1">
-        <v>40299</v>
+        <v>39692</v>
       </c>
       <c r="C194">
-        <v>0.23</v>
+        <v>-0.09</v>
       </c>
       <c r="D194">
-        <v>0.125291666666666</v>
+        <v>0.37791666666666601</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B195" s="1">
-        <v>40452</v>
+        <v>37135</v>
       </c>
       <c r="C195">
-        <v>0.06</v>
+        <v>-0.22</v>
       </c>
       <c r="D195">
-        <v>0.29027777777777702</v>
+        <v>0.31055555555555497</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B196" s="1">
-        <v>40452</v>
+        <v>37165</v>
       </c>
       <c r="C196">
-        <v>0.06</v>
+        <v>-0.16</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>0.28347222222222201</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="B197" s="1">
-        <v>40148</v>
+        <v>36130</v>
       </c>
       <c r="C197">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="D197">
-        <v>0.15481944444444401</v>
+        <v>0.22486111111111101</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="B198" s="1">
-        <v>40422</v>
+        <v>36251</v>
       </c>
       <c r="C198">
-        <v>-0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>0.207916666666666</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="B199" s="1">
-        <v>40909</v>
+        <v>42856</v>
       </c>
       <c r="C199">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>0.15930555555555501</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B200" s="1">
-        <v>40087</v>
+        <v>38961</v>
       </c>
       <c r="C200">
         <v>0.14000000000000001</v>
       </c>
       <c r="D200">
-        <v>1.02083333333333E-2</v>
+        <v>0.12583333333333299</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B201" s="1">
-        <v>41030</v>
+        <v>38169</v>
       </c>
       <c r="C201">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D201">
-        <v>1.6666666666666601E-3</v>
+        <v>0.120555555555555</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B202" s="1">
-        <v>41030</v>
+        <v>38899</v>
       </c>
       <c r="C202">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D202">
-        <v>7.0833333333333304E-3</v>
+        <v>0.11333333333333299</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B203" s="1">
-        <v>40391</v>
+        <v>40695</v>
       </c>
       <c r="C203">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="D203">
-        <v>0.20569444444444401</v>
+        <v>0.112638888888888</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B204" s="1">
-        <v>40391</v>
+        <v>40544</v>
       </c>
       <c r="C204">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="D204">
-        <v>0.114541666666666</v>
+        <v>0.106805555555555</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B205" s="1">
-        <v>40817</v>
+        <v>42461</v>
       </c>
       <c r="C205">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D205">
-        <v>2.49037698412698E-2</v>
+        <v>9.6111111111111105E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B206" s="1">
-        <v>40817</v>
+        <v>42186</v>
       </c>
       <c r="C206">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>4.7638888888888897E-2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B207" s="1">
-        <v>40756</v>
+        <v>37561</v>
       </c>
       <c r="C207">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D207">
-        <v>5.4695436507936498E-2</v>
+        <v>4.72222222222222E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B208" s="1">
-        <v>39995</v>
+        <v>37469</v>
       </c>
       <c r="C208">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D208">
-        <v>1.99305555555555E-2</v>
+        <v>3.94444444444444E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B209" s="1">
-        <v>39995</v>
+        <v>39873</v>
       </c>
       <c r="C209">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="D209">
-        <v>0.20999999999999899</v>
+        <v>3.8194444444444399E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B210" s="1">
-        <v>40848</v>
+        <v>39904</v>
       </c>
       <c r="C210">
-        <v>0.14000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>3.4583333333333299E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B211" s="1">
-        <v>39753</v>
+        <v>40969</v>
       </c>
       <c r="C211">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D211">
-        <v>4.0555555555555498E-2</v>
+        <v>3.3750000000000002E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="B212" s="1">
-        <v>39753</v>
+        <v>42401</v>
       </c>
       <c r="C212">
         <v>0.22</v>
       </c>
       <c r="D212">
-        <v>1.9375E-2</v>
+        <v>1.58333333333333E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B213" s="1">
-        <v>39783</v>
+        <v>43009</v>
       </c>
       <c r="C213">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="D213">
-        <v>2.5833333333333298E-2</v>
+        <v>1.3333333333333299E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B214" s="1">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="C214">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D214">
-        <v>4.3055555555555503E-3</v>
+        <v>9.02777777777777E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B215" s="1">
-        <v>39965</v>
+        <v>38018</v>
       </c>
       <c r="C215">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="D215">
-        <v>2.33333333333333E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B216" s="1">
-        <v>40787</v>
+        <v>38504</v>
       </c>
       <c r="C216">
-        <v>0.27</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D216">
-        <v>0.15402777777777699</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B217" s="1">
-        <v>40787</v>
+        <v>41395</v>
       </c>
       <c r="C217">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="D217">
-        <v>0.103167658730158</v>
+        <v>6.1111111111111097E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B218" s="1">
-        <v>39904</v>
+        <v>38838</v>
       </c>
       <c r="C218">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="D218">
-        <v>5.5555555555555501E-4</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B219" s="1">
-        <v>39873</v>
+        <v>37895</v>
       </c>
       <c r="C219">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
       <c r="D219">
-        <v>8.8888888888888802E-3</v>
+        <v>2.2222222222222201E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B220" s="1">
-        <v>39845</v>
+        <v>41365</v>
       </c>
       <c r="C220">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="D220">
-        <v>4.3750000000000004E-3</v>
+        <v>1.9444444444444401E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>158</v>
+      </c>
+      <c r="B221" s="1">
+        <v>40940</v>
+      </c>
+      <c r="C221">
+        <v>0.11</v>
+      </c>
+      <c r="D221">
+        <v>1.6666666666666601E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>166</v>
+      </c>
+      <c r="B222" s="1">
+        <v>41183</v>
+      </c>
+      <c r="C222">
+        <v>0.24</v>
+      </c>
+      <c r="D222">
+        <v>1.11111111111111E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>170</v>
+      </c>
+      <c r="B223" s="1">
+        <v>41306</v>
+      </c>
+      <c r="C223">
+        <v>0.23</v>
+      </c>
+      <c r="D223">
+        <v>5.5555555555555501E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>216</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42705</v>
+      </c>
+      <c r="C224">
+        <v>0.19</v>
+      </c>
+      <c r="D224">
+        <v>5.5555555555555501E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>51</v>
+      </c>
+      <c r="B225" s="1">
+        <v>37681</v>
+      </c>
+      <c r="C225">
+        <v>0.33</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>73</v>
+      </c>
+      <c r="B226" s="1">
+        <v>38353</v>
+      </c>
+      <c r="C226">
+        <v>0.08</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>84</v>
+      </c>
+      <c r="B227" s="1">
+        <v>38687</v>
+      </c>
+      <c r="C227">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>85</v>
+      </c>
+      <c r="B228" s="1">
+        <v>38718</v>
+      </c>
+      <c r="C228">
+        <v>0.13</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>174</v>
+      </c>
+      <c r="B229" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C229">
+        <v>0.22</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>183</v>
+      </c>
+      <c r="B230" s="1">
+        <v>41699</v>
+      </c>
+      <c r="C230">
+        <v>0.1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>212</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42583</v>
+      </c>
+      <c r="C231">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>219</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42795</v>
+      </c>
+      <c r="C232">
+        <v>0.12</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>222</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C233">
+        <v>0.12</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
